--- a/adm/2021-22/Lokalebestilling/E21 B1 - Skemagruppe A.xlsx
+++ b/adm/2021-22/Lokalebestilling/E21 B1 - Skemagruppe A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrh630/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrh630/repositories/PoP.git/adm/2021-22/Lokalebestilling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C882DA-D339-B443-87BF-90DB76CF4C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC0DC77-32D3-EE45-B73A-E1B2BA671584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1300" windowWidth="35400" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="520" windowWidth="19220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,6 +698,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -725,30 +761,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -760,30 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1083,105 +1083,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="49"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="60"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7" t="s">
@@ -1190,145 +1190,145 @@
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="50"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="50"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:23" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48" t="s">
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="51"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="24"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="17" t="s">
         <v>9</v>
       </c>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="13" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1416,27 +1416,27 @@
     </row>
     <row r="14" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,10 +1462,10 @@
     </row>
     <row r="16" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1507,27 +1507,27 @@
     </row>
     <row r="17" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
     </row>
     <row r="19" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1598,27 +1598,27 @@
     </row>
     <row r="20" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1644,10 @@
     </row>
     <row r="22" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="45" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1689,27 +1689,27 @@
     </row>
     <row r="23" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,10 +1735,10 @@
     </row>
     <row r="25" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="45" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1781,27 +1781,27 @@
     </row>
     <row r="26" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="61" t="s">
+      <c r="J26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,10 +1827,10 @@
     </row>
     <row r="28" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1872,27 +1872,27 @@
     </row>
     <row r="29" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="61" t="s">
+      <c r="J29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,10 +1918,10 @@
     </row>
     <row r="31" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1963,27 +1963,27 @@
     </row>
     <row r="32" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
       <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,10 +2009,10 @@
     </row>
     <row r="34" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="45" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -2054,35 +2054,35 @@
     </row>
     <row r="35" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="61" t="s">
+      <c r="J35" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
       <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="37" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2129,25 +2129,25 @@
     </row>
     <row r="38" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
       <c r="N38" s="30"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
       <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2173,40 +2173,22 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:R11"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="J38:M38"/>
     <mergeCell ref="O38:R38"/>
@@ -2223,22 +2205,40 @@
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:R11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2246,6 +2246,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <KUTargetGroupCode xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963">,tjd,</KUTargetGroupCode>
+    <TaxCatchAll xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963"/>
+    <bcfce0c5e6284e63a17c454c9db9aea2 xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bcfce0c5e6284e63a17c454c9db9aea2>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="KU Enhedsdokument" ma:contentTypeID="0x010100321F1813AE4A7046B6126D52239F206702009137F210ED5E6944B4B3BE22406A878D" ma:contentTypeVersion="244" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="ce8cf37e4ee4bc2aaeb45721c6309559">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="979f9d16b554a9133fb855bdcf557548" ns2:_="">
     <xsd:import namespace="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963"/>
@@ -2405,24 +2417,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <KUTargetGroupCode xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963">,tjd,</KUTargetGroupCode>
-    <TaxCatchAll xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963"/>
-    <bcfce0c5e6284e63a17c454c9db9aea2 xmlns="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bcfce0c5e6284e63a17c454c9db9aea2>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="778bc8ad-b7b6-484e-8ca1-265a34063f74" ContentTypeId="0x010100321F1813AE4A7046B6126D52239F206702" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2431,7 +2426,30 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="778bc8ad-b7b6-484e-8ca1-265a34063f74" ContentTypeId="0x010100321F1813AE4A7046B6126D52239F206702" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C20FD4-8F2B-456F-9C6A-DC2C810F7447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b03d816-5eb1-4bed-a520-1f4c6e7f8d42"/>
+    <ds:schemaRef ds:uri="e5f55062-2f43-45d2-a461-ad8f35743f37"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7DF6F6-DA01-4435-8CDE-7DB1E614B9DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2449,36 +2467,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C20FD4-8F2B-456F-9C6A-DC2C810F7447}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73AD9854-078F-4411-8690-4FDD780C63BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b03d816-5eb1-4bed-a520-1f4c6e7f8d42"/>
-    <ds:schemaRef ds:uri="e5f55062-2f43-45d2-a461-ad8f35743f37"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9c21cd9-c4d6-46ab-aa0b-2425b1d0c963"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AB028CA-E65D-41F3-811D-12F027317FC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73AD9854-078F-4411-8690-4FDD780C63BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>